--- a/notebooks/SPTAN1/input/SPTAN1_SPG91_individuals.xlsx
+++ b/notebooks/SPTAN1/input/SPTAN1_SPG91_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1125D861-D1BC-8942-BC68-A75EE73BD267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3718BB-88F6-0342-B6A4-1FC5A1BB2F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="3360" windowWidth="31820" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="2340" windowWidth="31820" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="144">
   <si>
     <t>PMID</t>
   </si>
@@ -443,6 +443,15 @@
   </si>
   <si>
     <t>assuming microcephaly was excluded in this cohort because authors contrast microcephaly seen in other SPTAN1 disorders in introduction and do not list microcephaly in the relatively detailed clinical discussion</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -841,21 +850,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U3:U24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="30" width="8.83203125" customWidth="1"/>
-    <col min="31" max="31" width="7.83203125" customWidth="1"/>
-    <col min="32" max="34" width="8.83203125" customWidth="1"/>
+    <col min="14" max="31" width="8.83203125" customWidth="1"/>
+    <col min="32" max="32" width="7.83203125" customWidth="1"/>
+    <col min="33" max="35" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,70 +908,73 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1006,70 +1018,73 @@
         <v>35</v>
       </c>
       <c r="O2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>44</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>133</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>116</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>138</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>136</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>112</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>47</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>110</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1113,67 +1128,70 @@
         <v>72</v>
       </c>
       <c r="O3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" t="s">
         <v>95</v>
       </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="R3" t="s">
-        <v>108</v>
+      <c r="Q3" t="s">
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T3" t="s">
         <v>107</v>
       </c>
       <c r="U3" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s">
         <v>108</v>
       </c>
       <c r="X3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s">
         <v>108</v>
       </c>
       <c r="AA3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD3" t="s">
         <v>37</v>
       </c>
       <c r="AE3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s">
         <v>108</v>
       </c>
       <c r="AG3" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH3" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AI3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1211,64 +1229,67 @@
         <v>74</v>
       </c>
       <c r="O4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4" t="s">
         <v>96</v>
       </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" t="s">
-        <v>108</v>
+      <c r="Q4" t="s">
+        <v>37</v>
       </c>
       <c r="S4" t="s">
         <v>108</v>
       </c>
       <c r="T4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U4" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s">
         <v>108</v>
       </c>
       <c r="X4" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y4" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD4" t="s">
         <v>37</v>
       </c>
       <c r="AE4" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s">
         <v>108</v>
       </c>
       <c r="AG4" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1306,64 +1327,67 @@
         <v>76</v>
       </c>
       <c r="O5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" t="s">
         <v>95</v>
       </c>
-      <c r="P5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" t="s">
-        <v>108</v>
+      <c r="Q5" t="s">
+        <v>37</v>
       </c>
       <c r="S5" t="s">
         <v>108</v>
       </c>
       <c r="T5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U5" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V5" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s">
         <v>108</v>
       </c>
       <c r="X5" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y5" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s">
         <v>108</v>
       </c>
       <c r="AA5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC5" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD5" t="s">
         <v>37</v>
       </c>
       <c r="AE5" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s">
         <v>108</v>
       </c>
       <c r="AG5" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1401,37 +1425,37 @@
         <v>78</v>
       </c>
       <c r="O6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" t="s">
         <v>95</v>
       </c>
-      <c r="P6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" t="s">
-        <v>108</v>
+      <c r="Q6" t="s">
+        <v>37</v>
       </c>
       <c r="S6" t="s">
         <v>108</v>
       </c>
       <c r="T6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U6" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V6" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s">
         <v>108</v>
       </c>
       <c r="X6" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s">
         <v>108</v>
@@ -1440,25 +1464,28 @@
         <v>108</v>
       </c>
       <c r="AC6" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD6" t="s">
         <v>37</v>
       </c>
       <c r="AE6" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="s">
         <v>108</v>
       </c>
       <c r="AG6" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1499,64 +1526,67 @@
         <v>79</v>
       </c>
       <c r="O7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" t="s">
         <v>96</v>
       </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" t="s">
-        <v>107</v>
+      <c r="Q7" t="s">
+        <v>37</v>
       </c>
       <c r="S7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T7" t="s">
         <v>108</v>
       </c>
       <c r="U7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V7" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s">
         <v>108</v>
       </c>
       <c r="X7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA7" t="s">
         <v>108</v>
       </c>
       <c r="AB7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC7" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD7" t="s">
         <v>37</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s">
         <v>108</v>
       </c>
       <c r="AG7" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1594,16 +1624,16 @@
         <v>81</v>
       </c>
       <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" t="s">
         <v>96</v>
       </c>
-      <c r="P8" t="s">
-        <v>37</v>
-      </c>
       <c r="Q8" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
         <v>108</v>
@@ -1612,52 +1642,55 @@
         <v>108</v>
       </c>
       <c r="U8" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s">
         <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA8" t="s">
         <v>108</v>
       </c>
       <c r="AB8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC8" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD8" t="s">
         <v>37</v>
       </c>
       <c r="AE8" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG8" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH8" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AI8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1694,68 +1727,71 @@
       <c r="N9" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P9" t="s">
-        <v>37</v>
-      </c>
       <c r="Q9" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="R9" t="s">
         <v>107</v>
       </c>
       <c r="S9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T9" t="s">
         <v>108</v>
       </c>
       <c r="U9" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V9" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s">
         <v>108</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA9" t="s">
         <v>108</v>
       </c>
       <c r="AB9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC9" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD9" t="s">
         <v>37</v>
       </c>
       <c r="AE9" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1793,13 +1829,13 @@
         <v>82</v>
       </c>
       <c r="O10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" t="s">
         <v>96</v>
       </c>
-      <c r="P10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R10" t="s">
-        <v>108</v>
+      <c r="Q10" t="s">
+        <v>37</v>
       </c>
       <c r="S10" t="s">
         <v>108</v>
@@ -1808,49 +1844,52 @@
         <v>108</v>
       </c>
       <c r="U10" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V10" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
         <v>108</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA10" t="s">
         <v>108</v>
       </c>
       <c r="AB10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC10" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD10" t="s">
         <v>37</v>
       </c>
       <c r="AE10" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG10" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1887,14 +1926,14 @@
       <c r="N11" t="s">
         <v>83</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P11" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" t="s">
-        <v>108</v>
+      <c r="Q11" t="s">
+        <v>37</v>
       </c>
       <c r="S11" t="s">
         <v>108</v>
@@ -1903,49 +1942,52 @@
         <v>108</v>
       </c>
       <c r="U11" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V11" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA11" t="s">
         <v>108</v>
       </c>
       <c r="AB11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC11" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD11" t="s">
         <v>37</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH11" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1983,13 +2025,13 @@
         <v>79</v>
       </c>
       <c r="O12" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" t="s">
         <v>96</v>
       </c>
-      <c r="P12" t="s">
-        <v>37</v>
-      </c>
-      <c r="R12" t="s">
-        <v>108</v>
+      <c r="Q12" t="s">
+        <v>37</v>
       </c>
       <c r="S12" t="s">
         <v>108</v>
@@ -1998,49 +2040,52 @@
         <v>108</v>
       </c>
       <c r="U12" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X12" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y12" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA12" t="s">
         <v>108</v>
       </c>
       <c r="AB12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC12" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD12" t="s">
         <v>37</v>
       </c>
       <c r="AE12" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG12" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -2077,14 +2122,14 @@
       <c r="N13" t="s">
         <v>85</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
+        <v>143</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
+      <c r="Q13" t="s">
+        <v>37</v>
       </c>
       <c r="S13" t="s">
         <v>108</v>
@@ -2093,49 +2138,52 @@
         <v>108</v>
       </c>
       <c r="U13" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V13" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s">
         <v>108</v>
       </c>
       <c r="X13" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y13" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA13" t="s">
         <v>108</v>
       </c>
       <c r="AB13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC13" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD13" t="s">
         <v>37</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s">
         <v>108</v>
       </c>
       <c r="AG13" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -2173,13 +2221,13 @@
         <v>86</v>
       </c>
       <c r="O14" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R14" t="s">
-        <v>108</v>
+      <c r="Q14" t="s">
+        <v>37</v>
       </c>
       <c r="S14" t="s">
         <v>108</v>
@@ -2188,49 +2236,52 @@
         <v>108</v>
       </c>
       <c r="U14" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V14" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s">
         <v>108</v>
       </c>
       <c r="X14" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y14" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA14" t="s">
         <v>108</v>
       </c>
       <c r="AB14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC14" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD14" t="s">
         <v>37</v>
       </c>
       <c r="AE14" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG14" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -2267,65 +2318,68 @@
       <c r="N15" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
+        <v>143</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P15" t="s">
-        <v>37</v>
-      </c>
-      <c r="R15" t="s">
-        <v>107</v>
+      <c r="Q15" t="s">
+        <v>37</v>
       </c>
       <c r="S15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U15" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V15" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X15" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Y15" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA15" t="s">
         <v>108</v>
       </c>
       <c r="AB15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC15" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD15" t="s">
         <v>37</v>
       </c>
       <c r="AE15" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG15" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2363,64 +2417,67 @@
         <v>82</v>
       </c>
       <c r="O16" t="s">
+        <v>143</v>
+      </c>
+      <c r="P16" t="s">
         <v>96</v>
       </c>
-      <c r="P16" t="s">
-        <v>37</v>
-      </c>
-      <c r="R16" t="s">
-        <v>107</v>
+      <c r="Q16" t="s">
+        <v>37</v>
       </c>
       <c r="S16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T16" t="s">
         <v>108</v>
       </c>
       <c r="U16" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V16" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s">
         <v>108</v>
       </c>
       <c r="X16" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y16" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA16" t="s">
         <v>108</v>
       </c>
       <c r="AB16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC16" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD16" t="s">
         <v>37</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG16" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2457,14 +2514,14 @@
       <c r="N17" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P17" t="s">
-        <v>37</v>
-      </c>
-      <c r="R17" t="s">
-        <v>108</v>
+      <c r="Q17" t="s">
+        <v>37</v>
       </c>
       <c r="S17" t="s">
         <v>108</v>
@@ -2473,49 +2530,52 @@
         <v>108</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V17" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X17" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Y17" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA17" t="s">
         <v>108</v>
       </c>
       <c r="AB17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC17" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD17" t="s">
         <v>37</v>
       </c>
       <c r="AE17" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s">
         <v>108</v>
       </c>
       <c r="AG17" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2552,68 +2612,71 @@
       <c r="N18" t="s">
         <v>89</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P18" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" t="s">
-        <v>107</v>
+      <c r="Q18" t="s">
+        <v>37</v>
       </c>
       <c r="S18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U18" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V18" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X18" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Y18" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA18" t="s">
         <v>108</v>
       </c>
       <c r="AB18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC18" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD18" t="s">
         <v>37</v>
       </c>
       <c r="AE18" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG18" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH18" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AI18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2650,65 +2713,68 @@
       <c r="N19" t="s">
         <v>79</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
+        <v>143</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P19" t="s">
-        <v>37</v>
-      </c>
-      <c r="R19" t="s">
-        <v>107</v>
+      <c r="Q19" t="s">
+        <v>37</v>
       </c>
       <c r="S19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T19" t="s">
         <v>108</v>
       </c>
       <c r="U19" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V19" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s">
         <v>108</v>
       </c>
       <c r="X19" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y19" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA19" t="s">
         <v>108</v>
       </c>
       <c r="AB19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC19" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD19" t="s">
         <v>37</v>
       </c>
       <c r="AE19" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s">
         <v>107</v>
       </c>
       <c r="AG19" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2745,14 +2811,14 @@
       <c r="N20" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P20" t="s">
-        <v>37</v>
-      </c>
-      <c r="R20" t="s">
-        <v>108</v>
+      <c r="Q20" t="s">
+        <v>37</v>
       </c>
       <c r="S20" t="s">
         <v>108</v>
@@ -2761,49 +2827,52 @@
         <v>108</v>
       </c>
       <c r="U20" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V20" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s">
         <v>108</v>
       </c>
       <c r="X20" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y20" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA20" t="s">
         <v>108</v>
       </c>
       <c r="AB20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD20" t="s">
         <v>37</v>
       </c>
       <c r="AE20" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s">
         <v>108</v>
       </c>
       <c r="AG20" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2840,14 +2909,14 @@
       <c r="N21" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P21" t="s">
-        <v>37</v>
-      </c>
-      <c r="R21" t="s">
-        <v>108</v>
+      <c r="Q21" t="s">
+        <v>37</v>
       </c>
       <c r="S21" t="s">
         <v>108</v>
@@ -2856,49 +2925,52 @@
         <v>108</v>
       </c>
       <c r="U21" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="V21" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s">
         <v>108</v>
       </c>
       <c r="X21" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y21" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA21" t="s">
         <v>108</v>
       </c>
       <c r="AB21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC21" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AD21" t="s">
         <v>37</v>
       </c>
       <c r="AE21" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF21" t="s">
         <v>108</v>
       </c>
       <c r="AG21" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2938,65 +3010,68 @@
       <c r="N22" t="s">
         <v>79</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P22" t="s">
-        <v>37</v>
-      </c>
-      <c r="R22" t="s">
-        <v>108</v>
+      <c r="Q22" t="s">
+        <v>37</v>
       </c>
       <c r="S22" t="s">
         <v>108</v>
       </c>
       <c r="T22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U22" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V22" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X22" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y22" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD22" t="s">
         <v>37</v>
       </c>
       <c r="AE22" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF22" t="s">
         <v>108</v>
       </c>
       <c r="AG22" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3036,35 +3111,35 @@
       <c r="N23" t="s">
         <v>92</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P23" t="s">
-        <v>37</v>
-      </c>
-      <c r="R23" t="s">
-        <v>108</v>
+      <c r="Q23" t="s">
+        <v>37</v>
       </c>
       <c r="S23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T23" t="s">
         <v>107</v>
       </c>
       <c r="U23" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V23" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s">
         <v>108</v>
       </c>
       <c r="X23" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y23" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s">
         <v>108</v>
@@ -3076,25 +3151,28 @@
         <v>108</v>
       </c>
       <c r="AC23" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD23" t="s">
         <v>37</v>
       </c>
       <c r="AE23" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG23" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AH23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3134,68 +3212,71 @@
       <c r="N24" t="s">
         <v>94</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" t="s">
+        <v>143</v>
+      </c>
+      <c r="P24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R24" t="s">
-        <v>108</v>
+      <c r="Q24" t="s">
+        <v>37</v>
       </c>
       <c r="S24" t="s">
         <v>108</v>
       </c>
       <c r="T24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U24" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V24" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Z24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AB24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC24" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AD24" t="s">
         <v>37</v>
       </c>
       <c r="AE24" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="s">
         <v>108</v>
       </c>
       <c r="AG24" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AH24" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AI24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -3235,23 +3316,23 @@
       <c r="N25" t="s">
         <v>82</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P25" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" t="s">
-        <v>108</v>
+      <c r="Q25" t="s">
+        <v>37</v>
       </c>
       <c r="S25" t="s">
         <v>108</v>
       </c>
       <c r="T25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V25" t="s">
         <v>108</v>
@@ -3260,19 +3341,19 @@
         <v>108</v>
       </c>
       <c r="X25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y25" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Z25" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AA25" t="s">
         <v>108</v>
       </c>
       <c r="AB25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC25" t="s">
         <v>107</v>
@@ -3281,22 +3362,25 @@
         <v>107</v>
       </c>
       <c r="AE25" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="s">
         <v>37</v>
       </c>
       <c r="AG25" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AH25" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AI25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>121</v>
       </c>
@@ -3336,44 +3420,44 @@
       <c r="N26" t="s">
         <v>77</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" t="s">
+        <v>143</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P26" t="s">
-        <v>37</v>
-      </c>
-      <c r="R26" t="s">
-        <v>108</v>
+      <c r="Q26" t="s">
+        <v>37</v>
       </c>
       <c r="S26" t="s">
         <v>108</v>
       </c>
       <c r="T26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U26" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V26" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="X26" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="Y26" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Z26" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AA26" t="s">
         <v>108</v>
       </c>
       <c r="AB26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC26" t="s">
         <v>107</v>
@@ -3382,22 +3466,25 @@
         <v>107</v>
       </c>
       <c r="AE26" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AF26" t="s">
         <v>37</v>
       </c>
       <c r="AG26" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="AH26" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AI26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -3437,44 +3524,44 @@
       <c r="N27" t="s">
         <v>77</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" t="s">
+        <v>143</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P27" t="s">
-        <v>37</v>
-      </c>
-      <c r="R27" t="s">
-        <v>108</v>
+      <c r="Q27" t="s">
+        <v>37</v>
       </c>
       <c r="S27" t="s">
         <v>108</v>
       </c>
       <c r="T27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U27" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V27" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s">
         <v>108</v>
       </c>
       <c r="X27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y27" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Z27" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AA27" t="s">
         <v>108</v>
       </c>
       <c r="AB27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC27" t="s">
         <v>107</v>
@@ -3483,19 +3570,22 @@
         <v>107</v>
       </c>
       <c r="AE27" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AF27" t="s">
         <v>37</v>
       </c>
       <c r="AG27" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -3535,44 +3625,44 @@
       <c r="N28" t="s">
         <v>129</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" t="s">
+        <v>143</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P28" t="s">
-        <v>37</v>
-      </c>
-      <c r="R28" t="s">
-        <v>108</v>
+      <c r="Q28" t="s">
+        <v>37</v>
       </c>
       <c r="S28" t="s">
         <v>108</v>
       </c>
       <c r="T28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U28" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="V28" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s">
         <v>108</v>
       </c>
       <c r="X28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y28" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Z28" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s">
         <v>108</v>
       </c>
       <c r="AB28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC28" t="s">
         <v>107</v>
@@ -3581,19 +3671,22 @@
         <v>107</v>
       </c>
       <c r="AE28" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AF28" t="s">
         <v>37</v>
       </c>
       <c r="AG28" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="AH28" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3633,50 +3726,50 @@
       <c r="N29" t="s">
         <v>71</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="P29" t="s">
-        <v>37</v>
-      </c>
-      <c r="R29" t="s">
-        <v>108</v>
+      <c r="Q29" t="s">
+        <v>37</v>
       </c>
       <c r="S29" t="s">
         <v>108</v>
       </c>
       <c r="T29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="X29" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="Y29" t="s">
         <v>37</v>
       </c>
       <c r="Z29" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s">
         <v>108</v>
       </c>
       <c r="AB29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC29" t="s">
         <v>107</v>
       </c>
       <c r="AD29" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="AE29" t="s">
         <v>37</v>
@@ -3691,10 +3784,13 @@
         <v>37</v>
       </c>
       <c r="AI29" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3734,14 +3830,14 @@
       <c r="N30" t="s">
         <v>79</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" t="s">
+        <v>143</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="P30" t="s">
-        <v>37</v>
-      </c>
-      <c r="R30" t="s">
-        <v>108</v>
+      <c r="Q30" t="s">
+        <v>37</v>
       </c>
       <c r="S30" t="s">
         <v>108</v>
@@ -3759,39 +3855,42 @@
         <v>108</v>
       </c>
       <c r="X30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Y30" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="Z30" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s">
         <v>108</v>
       </c>
       <c r="AB30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC30" t="s">
         <v>107</v>
       </c>
       <c r="AD30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE30" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AF30" t="s">
         <v>37</v>
       </c>
       <c r="AG30" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="AH30" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="AI30" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>16</v>
       </c>
     </row>
